--- a/WorkingFolder/Tables/macro_corr_educ_gr.xlsx
+++ b/WorkingFolder/Tables/macro_corr_educ_gr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>mean:incvar for low</t>
   </si>
@@ -34,106 +34,136 @@
     <t>mean:incskew for high</t>
   </si>
   <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-0.25**</t>
+  </si>
+  <si>
+    <t>-0.3**</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.23*</t>
+  </si>
+  <si>
+    <t>-0.28**</t>
+  </si>
+  <si>
+    <t>-0.32**</t>
+  </si>
+  <si>
+    <t>-0.24*</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.25**</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
     <t>-0.08</t>
   </si>
   <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
     <t>0.05</t>
   </si>
   <si>
-    <t>-0.02</t>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.13</t>
   </si>
   <si>
     <t>-0.05</t>
   </si>
   <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
     <t>-0.14</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>0.27**</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.2*</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.24**</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>0.15</t>
   </si>
 </sst>
 </file>
@@ -525,19 +555,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -548,19 +578,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -571,19 +601,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -594,19 +624,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -617,19 +647,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -637,22 +667,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -660,22 +690,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -686,19 +716,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -709,19 +739,19 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -729,22 +759,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -752,22 +782,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -775,22 +805,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr_educ_gr.xlsx
+++ b/WorkingFolder/Tables/macro_corr_educ_gr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>mean:incvar for low</t>
   </si>
@@ -34,136 +34,100 @@
     <t>mean:incskew for high</t>
   </si>
   <si>
+    <t>-0.01</t>
+  </si>
+  <si>
     <t>0.06</t>
   </si>
   <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.23*</t>
+  </si>
+  <si>
+    <t>-0.28**</t>
+  </si>
+  <si>
+    <t>-0.26**</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>-0.27**</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
     <t>0.12</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.11</t>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>-0.1</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.25**</t>
-  </si>
-  <si>
-    <t>-0.3**</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.28**</t>
-  </si>
-  <si>
-    <t>-0.32**</t>
-  </si>
-  <si>
-    <t>-0.24*</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.25**</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.04</t>
+    <t>-0.19</t>
   </si>
   <si>
     <t>-0.06</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>-0.14</t>
   </si>
 </sst>
 </file>
@@ -555,19 +519,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -578,19 +542,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -598,22 +562,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -621,22 +585,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -644,22 +608,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -667,22 +631,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -690,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -716,19 +680,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -739,19 +703,19 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -762,19 +726,19 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -785,19 +749,19 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -808,19 +772,19 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr_educ_gr.xlsx
+++ b/WorkingFolder/Tables/macro_corr_educ_gr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>mean:incvar for low</t>
   </si>
@@ -34,100 +34,103 @@
     <t>mean:incskew for high</t>
   </si>
   <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
     <t>-0.01</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>-0.0</t>
+    <t>-0.23**</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.19*</t>
+  </si>
+  <si>
+    <t>-0.15</t>
   </si>
   <si>
     <t>-0.11</t>
   </si>
   <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>-0.08</t>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.14</t>
   </si>
   <si>
     <t>-0.07</t>
   </si>
   <si>
-    <t>-0.23*</t>
-  </si>
-  <si>
-    <t>-0.28**</t>
-  </si>
-  <si>
-    <t>-0.26**</t>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>0.14</t>
   </si>
   <si>
     <t>0.04</t>
   </si>
   <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-0.14</t>
-  </si>
-  <si>
-    <t>-0.27**</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.06</t>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -519,19 +522,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -545,16 +548,16 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -562,22 +565,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -585,22 +588,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -608,22 +611,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -631,22 +634,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -654,22 +657,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -677,22 +680,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -700,22 +703,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -723,22 +726,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -746,22 +749,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -769,19 +772,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>22</v>
